--- a/semana7/homework/calculos_extras.xlsx
+++ b/semana7/homework/calculos_extras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opt\Maestria\SistemasInteligentes\semana7\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C316F199-B9B3-41CA-A72C-916CE39F0897}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561718F8-A74B-4642-BDFC-128083CC717A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{A75A7F27-CCCB-469A-A085-1C029B1C2077}"/>
   </bookViews>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86393811-C637-4EF3-9B49-D5A424746E2F}">
   <dimension ref="C3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>0</v>
       </c>
@@ -703,8 +703,11 @@
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>2</v>
       </c>
@@ -722,8 +725,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>3</v>
       </c>
@@ -740,6 +746,9 @@
       <c r="G19">
         <f t="shared" si="4"/>
         <v>-2</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/semana7/homework/calculos_extras.xlsx
+++ b/semana7/homework/calculos_extras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opt\Maestria\SistemasInteligentes\semana7\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561718F8-A74B-4642-BDFC-128083CC717A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4714DFCA-93B7-49CE-91AF-A0383BE70C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{A75A7F27-CCCB-469A-A085-1C029B1C2077}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +63,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86393811-C637-4EF3-9B49-D5A424746E2F}">
-  <dimension ref="C3:I19"/>
+  <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +699,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
       <c r="C17">
         <v>0</v>
       </c>
@@ -704,10 +719,16 @@
         <v>-3</v>
       </c>
       <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+        <f>SUM(0.7071*C17,-0.7071*D17,-0.7071)</f>
+        <v>-2.8283999999999998</v>
+      </c>
+      <c r="I17">
+        <f>SUM(1,-PRODUCT(E17,H17))</f>
+        <v>3.8283999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
       <c r="C18">
         <v>2</v>
       </c>
@@ -726,10 +747,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H18:H19" si="5">SUM(0.7071*C18,-0.7071*D18,-0.7071)</f>
+        <v>-0.70709999999999995</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I19" si="6">SUM(1,-PRODUCT(E18,H18))</f>
+        <v>0.29290000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
       <c r="C19">
         <v>3</v>
       </c>
@@ -748,10 +775,16 @@
         <v>-2</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>0.70709999999999973</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>1.7070999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>